--- a/FilesOrganizerIDOffice/src/main/resources/una/filesorganizeridoffice/xlsx/Formato Individual Mayores.xlsx
+++ b/FilesOrganizerIDOffice/src/main/resources/una/filesorganizeridoffice/xlsx/Formato Individual Mayores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N00148095\Desktop\Git\FilesAndSpreadsheetGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\FileOrganizer\FilesOrganizerIDOffice\src\main\resources\una\filesorganizeridoffice\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AB9651-3587-43A7-8A27-DEE2567B1BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B4EC7-310C-42CD-ADBC-D83DEEB9E965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,10 +463,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
@@ -564,7 +564,7 @@
   </protectedRanges>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2" xr:uid="{A6B8AC4C-0A84-419F-87B9-E73CBF4F80AC}">
-      <formula1>"Cedula de Identidad,Pasaporte,DIMEX,DIDI"</formula1>
+      <formula1>"Cédula de Identidad,Pasaporte,DIMEX,DIDI"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="D1" xr:uid="{53DF176D-78DF-4519-B234-A7FCC4273B9A}"/>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I1" xr:uid="{3735F805-1868-4008-A688-8567FA4147BD}">
